--- a/data/trans_orig/P6601-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P6601-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>218295</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>199930</v>
+        <v>199105</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>238319</v>
+        <v>236194</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6123700894437872</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5608541525507853</v>
+        <v>0.5585393446299945</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6685444927770208</v>
+        <v>0.6625824217366099</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>161</v>
@@ -765,19 +765,19 @@
         <v>166570</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>152559</v>
+        <v>153084</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>178192</v>
+        <v>178028</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.771289159720364</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7064108777256661</v>
+        <v>0.7088435425218662</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8251027386945418</v>
+        <v>0.82434334351197</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>374</v>
@@ -786,19 +786,19 @@
         <v>384865</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>361928</v>
+        <v>363800</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>405994</v>
+        <v>407067</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6723252256184681</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6322569994032875</v>
+        <v>0.6355276961051493</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7092371817981168</v>
+        <v>0.7111105234304659</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>86286</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>70757</v>
+        <v>71398</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>104775</v>
+        <v>102829</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2420521659506239</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1984913655340606</v>
+        <v>0.2002887767756359</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2939185696457774</v>
+        <v>0.288460604688748</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>34</v>
@@ -836,19 +836,19 @@
         <v>35244</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>24891</v>
+        <v>24759</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>47396</v>
+        <v>47434</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1631943492307175</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1152540786024856</v>
+        <v>0.1146424268145642</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2194636851682304</v>
+        <v>0.2196409191421889</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>116</v>
@@ -857,19 +857,19 @@
         <v>121530</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>101279</v>
+        <v>103386</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>141018</v>
+        <v>143083</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2123016071809828</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1769250379302598</v>
+        <v>0.180606238454556</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2463460933403523</v>
+        <v>0.2499531170808595</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>37371</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>26166</v>
+        <v>26119</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>50840</v>
+        <v>49613</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1048340248750207</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07340184572494853</v>
+        <v>0.07326915200953209</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1426188616556299</v>
+        <v>0.1391777769460211</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -907,19 +907,19 @@
         <v>7972</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3881</v>
+        <v>3769</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14968</v>
+        <v>14869</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03691142856596086</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01797091323450064</v>
+        <v>0.01745113295949129</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06930995878674719</v>
+        <v>0.06884838967736819</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>44</v>
@@ -928,19 +928,19 @@
         <v>45342</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>33777</v>
+        <v>33476</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>60421</v>
+        <v>60802</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.07920897871812918</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05900539734822921</v>
+        <v>0.05847949436276459</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1055503465957408</v>
+        <v>0.1062163135109736</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>14524</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8326</v>
+        <v>8202</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23722</v>
+        <v>23504</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04074371973056825</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02335759252688333</v>
+        <v>0.02300968523217057</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06654666101979968</v>
+        <v>0.06593437913528175</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -978,19 +978,19 @@
         <v>6178</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2210</v>
+        <v>2102</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12393</v>
+        <v>13249</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02860506248295767</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01023133379416947</v>
+        <v>0.009734245780966291</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05738449532455629</v>
+        <v>0.06134877513043925</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>20</v>
@@ -999,19 +999,19 @@
         <v>20702</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12361</v>
+        <v>12538</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>30828</v>
+        <v>30729</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03616418848241988</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02159375176926308</v>
+        <v>0.02190355948992919</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05385380645590707</v>
+        <v>0.05368053218828685</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>211593</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>196429</v>
+        <v>196338</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>224348</v>
+        <v>224280</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.7839388849120492</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7277577123883944</v>
+        <v>0.7274203275650181</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.831194897746639</v>
+        <v>0.8309430121949366</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>197</v>
@@ -1124,19 +1124,19 @@
         <v>199207</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>186653</v>
+        <v>187554</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>209373</v>
+        <v>207805</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.8588287799303519</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.8047054030420031</v>
+        <v>0.8085877997192062</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.9026578675635293</v>
+        <v>0.8958986929071808</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>396</v>
@@ -1145,19 +1145,19 @@
         <v>410800</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>391526</v>
+        <v>394487</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>426466</v>
+        <v>427807</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.8185517312250942</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.7801465946345733</v>
+        <v>0.7860461414088362</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.8497678549819366</v>
+        <v>0.8524388930897433</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>43501</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>31244</v>
+        <v>32072</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>57051</v>
+        <v>57658</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1611671979799219</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1157559770854892</v>
+        <v>0.1188244031113837</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2113699172059838</v>
+        <v>0.2136179612916787</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -1195,19 +1195,19 @@
         <v>25342</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15941</v>
+        <v>17799</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37063</v>
+        <v>35052</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.10925531617133</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06872732365442459</v>
+        <v>0.07673450189974987</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1597860401408129</v>
+        <v>0.1511187057702657</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>66</v>
@@ -1216,19 +1216,19 @@
         <v>68843</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>55025</v>
+        <v>54299</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>87120</v>
+        <v>84300</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1371744018033133</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1096411419434363</v>
+        <v>0.1081959056663874</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1735927232750115</v>
+        <v>0.1679742476771093</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>12210</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6872</v>
+        <v>6613</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>20235</v>
+        <v>20548</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04523657574070622</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02546146491210651</v>
+        <v>0.02449985890998015</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07496980644116272</v>
+        <v>0.07613070106813924</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -1266,19 +1266,19 @@
         <v>5391</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1991</v>
+        <v>2100</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11943</v>
+        <v>12258</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02324157612887329</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.00858519046806955</v>
+        <v>0.009052687592427586</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05148953854389419</v>
+        <v>0.05284608863098024</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>18</v>
@@ -1287,19 +1287,19 @@
         <v>17601</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>10802</v>
+        <v>10091</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>27651</v>
+        <v>26622</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03507085790876377</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02152359437982161</v>
+        <v>0.02010716765346097</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05509752782473831</v>
+        <v>0.0530466810075261</v>
       </c>
     </row>
     <row r="12">
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9650</v>
+        <v>9183</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.009657341367322731</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03575282425811753</v>
+        <v>0.03402072708436486</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6583</v>
+        <v>6502</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.008674327769444826</v>
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02838098791309985</v>
+        <v>0.02803031400819982</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>4</v>
@@ -1358,19 +1358,19 @@
         <v>4619</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1635</v>
+        <v>1018</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>12706</v>
+        <v>13657</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.009203009062828702</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.003258061100714133</v>
+        <v>0.002028155910741455</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02531771016009611</v>
+        <v>0.02721250340927423</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>121464</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>103754</v>
+        <v>104433</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>142050</v>
+        <v>141922</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3196089462842687</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2730090946705648</v>
+        <v>0.2747949813870991</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3737767071202362</v>
+        <v>0.3734405404640869</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>26</v>
@@ -1483,19 +1483,19 @@
         <v>26933</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>19927</v>
+        <v>19314</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>34483</v>
+        <v>34946</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4740321882388021</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3507254853054264</v>
+        <v>0.3399450256199709</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6069209074358863</v>
+        <v>0.6150790361245204</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>141</v>
@@ -1504,19 +1504,19 @@
         <v>148396</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>127239</v>
+        <v>128074</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>169043</v>
+        <v>167996</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3396927652657313</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2912616598591118</v>
+        <v>0.2931729507263088</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3869545730977206</v>
+        <v>0.3845566684653187</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>111090</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>92942</v>
+        <v>93483</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>129446</v>
+        <v>131192</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2923124737897954</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2445594232043432</v>
+        <v>0.2459817427252649</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3406137091466365</v>
+        <v>0.3452072523396604</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>17</v>
@@ -1554,19 +1554,19 @@
         <v>17977</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>11315</v>
+        <v>11683</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>24887</v>
+        <v>26020</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3164147258685035</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1991563124449247</v>
+        <v>0.205621586553591</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4380278471987773</v>
+        <v>0.4579778212591691</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>127</v>
@@ -1575,19 +1575,19 @@
         <v>129068</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>109290</v>
+        <v>110903</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>148483</v>
+        <v>148645</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2954471396708347</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2501755694189078</v>
+        <v>0.253867930488635</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3398906917221713</v>
+        <v>0.3402623296191759</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>99992</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>82389</v>
+        <v>82780</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>119212</v>
+        <v>117021</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2631089899172513</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2167912919657151</v>
+        <v>0.2178188907710973</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3136831120895137</v>
+        <v>0.3079177087797398</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -1625,19 +1625,19 @@
         <v>9021</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4174</v>
+        <v>4764</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15089</v>
+        <v>16136</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1587801161534834</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0734668072089415</v>
+        <v>0.08384442511716612</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2655681936561869</v>
+        <v>0.2840078119076646</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>104</v>
@@ -1646,19 +1646,19 @@
         <v>109013</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>90885</v>
+        <v>91498</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>128085</v>
+        <v>129246</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2495402926881884</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2080435835261997</v>
+        <v>0.2094466494236777</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2931977353125595</v>
+        <v>0.2958552165747257</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>47493</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>36230</v>
+        <v>35256</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>61676</v>
+        <v>61765</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1249695900086846</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09533224311222206</v>
+        <v>0.0927697744164262</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1622886695109764</v>
+        <v>0.1625226684117005</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1696,19 +1696,19 @@
         <v>2885</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7762</v>
+        <v>7709</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05077296973921105</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01626575261331744</v>
+        <v>0.01634464057223715</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1366165033149805</v>
+        <v>0.1356772069485666</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>49</v>
@@ -1717,19 +1717,19 @@
         <v>50378</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>39076</v>
+        <v>37636</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>66350</v>
+        <v>63867</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1153198023752456</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08944854552720499</v>
+        <v>0.08615251609195593</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1518804109655997</v>
+        <v>0.146197552977297</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>311017</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>282470</v>
+        <v>285887</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>338440</v>
+        <v>338714</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4403095612829103</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3998958390459355</v>
+        <v>0.4047325819207387</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4791329598005968</v>
+        <v>0.4795212493434163</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>205</v>
@@ -1842,19 +1842,19 @@
         <v>216825</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>201228</v>
+        <v>200452</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>231605</v>
+        <v>232438</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7116451918414279</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6604511855284499</v>
+        <v>0.657906380550116</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7601529762826341</v>
+        <v>0.7628864929683264</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>504</v>
@@ -1863,19 +1863,19 @@
         <v>527842</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>494830</v>
+        <v>496130</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>558124</v>
+        <v>559853</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5220777504312719</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4894263257763538</v>
+        <v>0.4907118357499325</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5520289956283889</v>
+        <v>0.5537394369954984</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>156851</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>136221</v>
+        <v>133581</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>179212</v>
+        <v>179839</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2220552058339394</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1928501315002263</v>
+        <v>0.1891115657082141</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2537121466978891</v>
+        <v>0.2545993491550208</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>54</v>
@@ -1913,19 +1913,19 @@
         <v>58317</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>44864</v>
+        <v>44990</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>72584</v>
+        <v>72300</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1914020359062454</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1472494640774055</v>
+        <v>0.14766360254608</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2382297596101401</v>
+        <v>0.2372971759503798</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>203</v>
@@ -1934,19 +1934,19 @@
         <v>215167</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>189582</v>
+        <v>191047</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>241170</v>
+        <v>244362</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2128177378630531</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1875121085837022</v>
+        <v>0.1889606307018435</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2385360974550594</v>
+        <v>0.24169320469352</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>179751</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>156038</v>
+        <v>157239</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>202324</v>
+        <v>205917</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2544747121435654</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.22090441307773</v>
+        <v>0.2226056387705388</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2864320790748105</v>
+        <v>0.2915184320069601</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>22</v>
@@ -1984,19 +1984,19 @@
         <v>22506</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>14462</v>
+        <v>13563</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>33207</v>
+        <v>31727</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.07386790698018343</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04746701637802146</v>
+        <v>0.04451630308994705</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.108987613729093</v>
+        <v>0.1041311299876768</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>196</v>
@@ -2005,19 +2005,19 @@
         <v>202257</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>178653</v>
+        <v>176241</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>229864</v>
+        <v>228503</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2000480547389242</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1767023451155453</v>
+        <v>0.1743163115080234</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2273533440328362</v>
+        <v>0.2260079065339659</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>58741</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>43993</v>
+        <v>45499</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>72282</v>
+        <v>77252</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08316052073958491</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06228100642775288</v>
+        <v>0.06441286804179981</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1023297873238513</v>
+        <v>0.1093661400818328</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -2055,19 +2055,19 @@
         <v>7034</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2855</v>
+        <v>2893</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>13854</v>
+        <v>12631</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02308486527214329</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.009370032534586837</v>
+        <v>0.009495727009880772</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04547159825800849</v>
+        <v>0.04145488119866485</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>63</v>
@@ -2079,16 +2079,16 @@
         <v>50866</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>83459</v>
+        <v>81084</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06505645696675075</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05031047060843661</v>
+        <v>0.05031086297389412</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08254774796877205</v>
+        <v>0.08019869551620959</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>79241</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>66380</v>
+        <v>64983</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>92841</v>
+        <v>94088</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4304616744755515</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.360598366171764</v>
+        <v>0.3530087173537726</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5043453518505161</v>
+        <v>0.5111160782738814</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>152</v>
@@ -2201,19 +2201,19 @@
         <v>166740</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>153427</v>
+        <v>153865</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>177425</v>
+        <v>177479</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7889881801852207</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.7259951218076586</v>
+        <v>0.7280664529900444</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8395482799987551</v>
+        <v>0.8398026267479551</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>223</v>
@@ -2222,19 +2222,19 @@
         <v>245981</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>226034</v>
+        <v>224578</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>264849</v>
+        <v>264207</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.6220793548284255</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5716342131787027</v>
+        <v>0.5679503277504723</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6697958053833672</v>
+        <v>0.668171744417502</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>49000</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>36993</v>
+        <v>37284</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>61321</v>
+        <v>63608</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2661845276337838</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2009591509166241</v>
+        <v>0.2025386279478198</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3331140930346207</v>
+        <v>0.3455412103796249</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>29</v>
@@ -2272,19 +2272,19 @@
         <v>30557</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>20625</v>
+        <v>21208</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>41698</v>
+        <v>41926</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1445894619678828</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09759461023652483</v>
+        <v>0.100351068854178</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1973068425705028</v>
+        <v>0.1983886114124492</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>76</v>
@@ -2293,19 +2293,19 @@
         <v>79557</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>64561</v>
+        <v>64620</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>97623</v>
+        <v>96389</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2011969631045291</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1632729027064184</v>
+        <v>0.1634223604529932</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2468855933157841</v>
+        <v>0.2437638970270534</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>45058</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>32645</v>
+        <v>33611</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>57824</v>
+        <v>58269</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2447688108561639</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1773384842725877</v>
+        <v>0.1825876038296406</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3141176029691913</v>
+        <v>0.3165361680141101</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>9</v>
@@ -2343,19 +2343,19 @@
         <v>9099</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4388</v>
+        <v>4099</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>16468</v>
+        <v>15970</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04305521346048384</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02076277587407078</v>
+        <v>0.0193947947612837</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.07792492626446938</v>
+        <v>0.07556763019315559</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>51</v>
@@ -2364,19 +2364,19 @@
         <v>54157</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>40509</v>
+        <v>40278</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>70620</v>
+        <v>69142</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1369611843263318</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1024469605129111</v>
+        <v>0.1018625084080723</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1785968810481901</v>
+        <v>0.1748572335782006</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>10785</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>5297</v>
+        <v>5145</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>19506</v>
+        <v>18120</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.05858498703450081</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02877696680048085</v>
+        <v>0.02794903479129616</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1059626219799797</v>
+        <v>0.0984330209643367</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>5</v>
@@ -2414,19 +2414,19 @@
         <v>4938</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1915</v>
+        <v>1902</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>10938</v>
+        <v>11100</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.02336714438641267</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.009061207185616533</v>
+        <v>0.008997932180505793</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.05175704255675454</v>
+        <v>0.05252197730692133</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>16</v>
@@ -2435,19 +2435,19 @@
         <v>15723</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>9220</v>
+        <v>8983</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>26919</v>
+        <v>26141</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.03976249774071366</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.0233170036080524</v>
+        <v>0.02271779599911078</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.06807733915922683</v>
+        <v>0.06610889633847571</v>
       </c>
     </row>
     <row r="28">
@@ -2539,19 +2539,19 @@
         <v>941609</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>898507</v>
+        <v>895171</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>985951</v>
+        <v>985904</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4964024118966079</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4736798944617067</v>
+        <v>0.4719208446874341</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.519779198795816</v>
+        <v>0.5197542759193035</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>741</v>
@@ -2560,19 +2560,19 @@
         <v>776275</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>747704</v>
+        <v>745563</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>802836</v>
+        <v>801375</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7604971340380345</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7325065410821872</v>
+        <v>0.7304087894599911</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7865176798845834</v>
+        <v>0.7850871541295982</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1638</v>
@@ -2581,19 +2581,19 @@
         <v>1717884</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1662043</v>
+        <v>1665863</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1769977</v>
+        <v>1771930</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5887977706925986</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5696585053513661</v>
+        <v>0.5709677906306585</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6066522734150539</v>
+        <v>0.6073217408120167</v>
       </c>
     </row>
     <row r="30">
@@ -2610,19 +2610,19 @@
         <v>446727</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>411392</v>
+        <v>409069</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>484139</v>
+        <v>485480</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2355079601990074</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2168797054552362</v>
+        <v>0.2156553566865737</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2552311965294556</v>
+        <v>0.2559377844501717</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>159</v>
@@ -2631,19 +2631,19 @@
         <v>167437</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>144273</v>
+        <v>143724</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>192343</v>
+        <v>191571</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1640335270747439</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1413408707737071</v>
+        <v>0.1408029932328898</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1884337098652975</v>
+        <v>0.1876776367643768</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>588</v>
@@ -2652,19 +2652,19 @@
         <v>614164</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>568611</v>
+        <v>574128</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>657791</v>
+        <v>657093</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2105021371378412</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1948890179998525</v>
+        <v>0.1967801077710645</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.225455180879951</v>
+        <v>0.2252159402538926</v>
       </c>
     </row>
     <row r="31">
@@ -2681,19 +2681,19 @@
         <v>374380</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>341073</v>
+        <v>341143</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>409774</v>
+        <v>409235</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.197367873548517</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1798087112337832</v>
+        <v>0.1798458071863709</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.216026886114129</v>
+        <v>0.2157429238500594</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>53</v>
@@ -2702,19 +2702,19 @@
         <v>53989</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>41254</v>
+        <v>41915</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>70703</v>
+        <v>71114</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05289157117794999</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04041547791024071</v>
+        <v>0.04106317987438281</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.06926586217959946</v>
+        <v>0.06966811563771834</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>413</v>
@@ -2723,19 +2723,19 @@
         <v>428369</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>390692</v>
+        <v>391778</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>469458</v>
+        <v>469410</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1468218433711398</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1339080905805644</v>
+        <v>0.1342802034076504</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1609047716425822</v>
+        <v>0.1608883456283924</v>
       </c>
     </row>
     <row r="32">
@@ -2752,19 +2752,19 @@
         <v>134150</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>113197</v>
+        <v>110796</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>158109</v>
+        <v>155555</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.07072175435586775</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.05967581932505155</v>
+        <v>0.05840987593405364</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0833527860077547</v>
+        <v>0.08200643224563389</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>23</v>
@@ -2773,19 +2773,19 @@
         <v>23046</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>15359</v>
+        <v>14987</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>33729</v>
+        <v>34923</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02257776770927151</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01504678721544702</v>
+        <v>0.01468222681263694</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03304296943919451</v>
+        <v>0.03421321077103583</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>152</v>
@@ -2794,19 +2794,19 @@
         <v>157196</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>134160</v>
+        <v>133962</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>184085</v>
+        <v>185332</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.05387824879842035</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.04598279538443967</v>
+        <v>0.04591485264263305</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.06309446004964282</v>
+        <v>0.06352184594559317</v>
       </c>
     </row>
     <row r="33">
@@ -3139,19 +3139,19 @@
         <v>155297</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>137281</v>
+        <v>138574</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>173730</v>
+        <v>171442</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5128632212842564</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4533678719380058</v>
+        <v>0.4576365024850702</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.573740140665959</v>
+        <v>0.5661822051254314</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>85</v>
@@ -3160,19 +3160,19 @@
         <v>95419</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>80866</v>
+        <v>81601</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>111241</v>
+        <v>110010</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4908021356359217</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4159460687395796</v>
+        <v>0.4197299152713245</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5721858504081684</v>
+        <v>0.5658529067534467</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>228</v>
@@ -3181,19 +3181,19 @@
         <v>250715</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>226895</v>
+        <v>225713</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>273964</v>
+        <v>275122</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5042372372599245</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4563294353152497</v>
+        <v>0.4539524444130486</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5509950726936987</v>
+        <v>0.553324680452798</v>
       </c>
     </row>
     <row r="5">
@@ -3210,19 +3210,19 @@
         <v>88243</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>73095</v>
+        <v>72370</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>106719</v>
+        <v>106152</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2914208398663353</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2413935602714971</v>
+        <v>0.2389990019960667</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3524373946370588</v>
+        <v>0.3505632599967304</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>63</v>
@@ -3231,19 +3231,19 @@
         <v>70730</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>57194</v>
+        <v>57035</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>85392</v>
+        <v>84911</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3638133199079429</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2941860057173427</v>
+        <v>0.2933676987085075</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4392255259256646</v>
+        <v>0.4367512797513038</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>147</v>
@@ -3252,19 +3252,19 @@
         <v>158974</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>139195</v>
+        <v>137898</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>181603</v>
+        <v>181548</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.319726626185052</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2799474859433584</v>
+        <v>0.27733969822885</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3652394563292193</v>
+        <v>0.3651285265853714</v>
       </c>
     </row>
     <row r="6">
@@ -3281,19 +3281,19 @@
         <v>45080</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>32675</v>
+        <v>33847</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>59829</v>
+        <v>58352</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1488759912743556</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1079087317403109</v>
+        <v>0.1117800387196323</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1975845173565503</v>
+        <v>0.1927051001406984</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>18</v>
@@ -3302,19 +3302,19 @@
         <v>18179</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>11384</v>
+        <v>11756</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>28017</v>
+        <v>27267</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09350549940783896</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05855633946992227</v>
+        <v>0.06047100023743811</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1441097432858111</v>
+        <v>0.1402519410093705</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>62</v>
@@ -3323,19 +3323,19 @@
         <v>63259</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>48570</v>
+        <v>50044</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>81174</v>
+        <v>79242</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1272258791323893</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09768328404467189</v>
+        <v>0.1006474138037919</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1632562093167134</v>
+        <v>0.1593702600461292</v>
       </c>
     </row>
     <row r="7">
@@ -3352,19 +3352,19 @@
         <v>14183</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7505</v>
+        <v>7566</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26433</v>
+        <v>25075</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04683994757505271</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02478466990045226</v>
+        <v>0.0249852492359583</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08729511691074901</v>
+        <v>0.08280944703959678</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -3373,19 +3373,19 @@
         <v>10086</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5221</v>
+        <v>5461</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17622</v>
+        <v>18539</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05187904504829641</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02685615704613338</v>
+        <v>0.02809065382347904</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09064095758334646</v>
+        <v>0.09535788412701918</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>22</v>
@@ -3394,19 +3394,19 @@
         <v>24269</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15585</v>
+        <v>15574</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>38013</v>
+        <v>36755</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04881025742263414</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03134450413943379</v>
+        <v>0.03132330961365925</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07645154504930136</v>
+        <v>0.07392185027210892</v>
       </c>
     </row>
     <row r="8">
@@ -3498,19 +3498,19 @@
         <v>152575</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>136971</v>
+        <v>133909</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>170904</v>
+        <v>170681</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5924515850935824</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5318596867237257</v>
+        <v>0.5199704524731407</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6636212397576851</v>
+        <v>0.6627581834733338</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>108</v>
@@ -3519,19 +3519,19 @@
         <v>119292</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>105559</v>
+        <v>106168</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>130256</v>
+        <v>131048</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.7141739209165069</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6319581915784549</v>
+        <v>0.6356050656915704</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7798135040870567</v>
+        <v>0.7845539877756296</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>242</v>
@@ -3540,19 +3540,19 @@
         <v>271867</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>250238</v>
+        <v>247677</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>292459</v>
+        <v>291985</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.640340225647553</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5893964674274131</v>
+        <v>0.5833637111589849</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6888416775351891</v>
+        <v>0.6877245192450048</v>
       </c>
     </row>
     <row r="10">
@@ -3569,19 +3569,19 @@
         <v>75953</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>60627</v>
+        <v>61536</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>91397</v>
+        <v>92017</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2949264131439256</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2354143310821436</v>
+        <v>0.2389464295881947</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3548948700850251</v>
+        <v>0.3573021837586111</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>35</v>
@@ -3590,19 +3590,19 @@
         <v>37931</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28261</v>
+        <v>27930</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>49801</v>
+        <v>50953</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2270829942648124</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1691941690329409</v>
+        <v>0.167208945379117</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2981485857906243</v>
+        <v>0.3050445288514462</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>106</v>
@@ -3611,19 +3611,19 @@
         <v>113884</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>94606</v>
+        <v>96882</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>132808</v>
+        <v>136504</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.268235099025696</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2228296237145734</v>
+        <v>0.2281893344637342</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3128073111588049</v>
+        <v>0.3215125121680566</v>
       </c>
     </row>
     <row r="11">
@@ -3640,19 +3640,19 @@
         <v>23070</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>14685</v>
+        <v>15067</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>35300</v>
+        <v>36139</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08958019505488417</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05702011108093644</v>
+        <v>0.0585064984537853</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1370698985117019</v>
+        <v>0.1403287076888832</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>7</v>
@@ -3661,19 +3661,19 @@
         <v>7709</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3072</v>
+        <v>2969</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>16202</v>
+        <v>15843</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04615206906592951</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0183900728436824</v>
+        <v>0.01777360297876537</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09699746132079805</v>
+        <v>0.09484959070103977</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>28</v>
@@ -3682,19 +3682,19 @@
         <v>30779</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>21875</v>
+        <v>20866</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>44050</v>
+        <v>42750</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07249447367632748</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0515226444082856</v>
+        <v>0.04914597526531111</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1037533217301599</v>
+        <v>0.1006910750302006</v>
       </c>
     </row>
     <row r="12">
@@ -3711,19 +3711,19 @@
         <v>5934</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2001</v>
+        <v>1981</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14367</v>
+        <v>13928</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02304180670760782</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.007770601409753566</v>
+        <v>0.007691553341643923</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05578840495702538</v>
+        <v>0.05408176948710657</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7878</v>
+        <v>6763</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01259101575275118</v>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04716103010212579</v>
+        <v>0.04048877363967272</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -3753,19 +3753,19 @@
         <v>8037</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3207</v>
+        <v>3241</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>18419</v>
+        <v>16560</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01893020165042357</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.007553717139941269</v>
+        <v>0.007633809026996415</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04338352484477849</v>
+        <v>0.03900342156942796</v>
       </c>
     </row>
     <row r="13">
@@ -3857,19 +3857,19 @@
         <v>102978</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>86522</v>
+        <v>86258</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>120812</v>
+        <v>118119</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3683560522631887</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3094948307980157</v>
+        <v>0.3085491999593333</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4321516738421638</v>
+        <v>0.4225172133662687</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>56</v>
@@ -3878,19 +3878,19 @@
         <v>60037</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>49409</v>
+        <v>49326</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>70828</v>
+        <v>70084</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5419040152652124</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.445974824411744</v>
+        <v>0.4452257483835171</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6393060406002945</v>
+        <v>0.6325888238796125</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>158</v>
@@ -3899,19 +3899,19 @@
         <v>163015</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>145220</v>
+        <v>143771</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>186096</v>
+        <v>183187</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4176125455870817</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3720260881765232</v>
+        <v>0.3683151501304602</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4767431746604771</v>
+        <v>0.4692904149225807</v>
       </c>
     </row>
     <row r="15">
@@ -3928,19 +3928,19 @@
         <v>89583</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>74805</v>
+        <v>76061</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>106690</v>
+        <v>107402</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3204431752542243</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.267580821680298</v>
+        <v>0.2720737175089407</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3816336681719854</v>
+        <v>0.3841839814048029</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>30</v>
@@ -3949,19 +3949,19 @@
         <v>30758</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>21701</v>
+        <v>22987</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>40627</v>
+        <v>41629</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2776302397442733</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1958760239023998</v>
+        <v>0.2074804320659749</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3667031725800382</v>
+        <v>0.3757472737277796</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>117</v>
@@ -3970,19 +3970,19 @@
         <v>120341</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>100960</v>
+        <v>101314</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>138269</v>
+        <v>138070</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3082919806470161</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2586391404815396</v>
+        <v>0.2595477938292629</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3542195962112007</v>
+        <v>0.3537094309432828</v>
       </c>
     </row>
     <row r="16">
@@ -3999,19 +3999,19 @@
         <v>56728</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>43289</v>
+        <v>44840</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>70728</v>
+        <v>72035</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2029202426956747</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1548463095249497</v>
+        <v>0.1603933231433245</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2529964410255384</v>
+        <v>0.2576743738405831</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -4020,19 +4020,19 @@
         <v>10767</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5399</v>
+        <v>5414</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18479</v>
+        <v>18274</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09718069985429055</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04873632718505251</v>
+        <v>0.04887181080682697</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1667978745771148</v>
+        <v>0.164945104639692</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>66</v>
@@ -4041,19 +4041,19 @@
         <v>67495</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>53352</v>
+        <v>53705</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>82930</v>
+        <v>83551</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1729091783423731</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1366782241141537</v>
+        <v>0.1375831236600257</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2124497150365121</v>
+        <v>0.2140419344555064</v>
       </c>
     </row>
     <row r="17">
@@ -4070,19 +4070,19 @@
         <v>30271</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>20843</v>
+        <v>20662</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>41903</v>
+        <v>43516</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1082805297869123</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07455587685298139</v>
+        <v>0.07390723405327201</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1498892493677561</v>
+        <v>0.1556587585889077</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>9</v>
@@ -4094,16 +4094,16 @@
         <v>4971</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16928</v>
+        <v>16945</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0832850451362238</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04486985286702858</v>
+        <v>0.04486533824890191</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1527974585897419</v>
+        <v>0.1529476956320008</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>37</v>
@@ -4112,19 +4112,19 @@
         <v>39498</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>28794</v>
+        <v>29039</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>53188</v>
+        <v>53916</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1011862954235291</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07376412585678216</v>
+        <v>0.07439258295346193</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1362582051711173</v>
+        <v>0.1381228986486388</v>
       </c>
     </row>
     <row r="18">
@@ -4216,19 +4216,19 @@
         <v>159828</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>138350</v>
+        <v>137559</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>179937</v>
+        <v>178055</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3788338281850175</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3279258817278607</v>
+        <v>0.3260507347760379</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4264970227934238</v>
+        <v>0.4220380062090373</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>153</v>
@@ -4237,19 +4237,19 @@
         <v>163336</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>144281</v>
+        <v>146060</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>179983</v>
+        <v>181298</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5447624639778693</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4812096376197768</v>
+        <v>0.4871432477789458</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6002868963791774</v>
+        <v>0.6046697133842753</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>302</v>
@@ -4258,19 +4258,19 @@
         <v>323163</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>294942</v>
+        <v>291440</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>351067</v>
+        <v>348599</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4477663446950407</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4086646904321995</v>
+        <v>0.4038117829539304</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4864293272871961</v>
+        <v>0.4830105214995082</v>
       </c>
     </row>
     <row r="20">
@@ -4287,19 +4287,19 @@
         <v>127190</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>109778</v>
+        <v>108277</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>147043</v>
+        <v>148881</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3014734418061151</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2602038326610069</v>
+        <v>0.2566452062287931</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3485297865699647</v>
+        <v>0.3528867897039729</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>88</v>
@@ -4308,19 +4308,19 @@
         <v>93218</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>78347</v>
+        <v>78590</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>110993</v>
+        <v>110374</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3109045993938971</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2613039467497498</v>
+        <v>0.2621145990686705</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3701874398662214</v>
+        <v>0.3681234628548208</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>208</v>
@@ -4329,19 +4329,19 @@
         <v>220408</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>193886</v>
+        <v>195579</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>245095</v>
+        <v>247724</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3053914721269334</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.268643112999181</v>
+        <v>0.2709896444102448</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3395981433708196</v>
+        <v>0.3432399053089008</v>
       </c>
     </row>
     <row r="21">
@@ -4358,19 +4358,19 @@
         <v>91802</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>75797</v>
+        <v>76234</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>110839</v>
+        <v>111607</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2175943684422149</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.179659156271459</v>
+        <v>0.1806955272034466</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2627174605040855</v>
+        <v>0.264536858718761</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>24</v>
@@ -4379,19 +4379,19 @@
         <v>26070</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>17052</v>
+        <v>17003</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>37280</v>
+        <v>37941</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.08695118549091208</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05687251113946518</v>
+        <v>0.05670733533728737</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1243388124731421</v>
+        <v>0.1265409377165334</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>113</v>
@@ -4400,19 +4400,19 @@
         <v>117872</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>97408</v>
+        <v>97746</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>138193</v>
+        <v>138663</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1633206541873991</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1349658064861829</v>
+        <v>0.1354346520822626</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1914761005686106</v>
+        <v>0.1921279628289268</v>
       </c>
     </row>
     <row r="22">
@@ -4429,19 +4429,19 @@
         <v>43075</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>31555</v>
+        <v>31687</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>58819</v>
+        <v>57491</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1020983615666524</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07479332384036819</v>
+        <v>0.07510695632035155</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1394157324478356</v>
+        <v>0.1362695365448316</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>17</v>
@@ -4450,19 +4450,19 @@
         <v>17205</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>10838</v>
+        <v>10241</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>26499</v>
+        <v>26459</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05738175113732146</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03614586061282054</v>
+        <v>0.03415484403345164</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08837977630665578</v>
+        <v>0.08824791911865017</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>56</v>
@@ -4471,19 +4471,19 @@
         <v>60279</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>46262</v>
+        <v>45811</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>76847</v>
+        <v>76025</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08352152899062688</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06409975129450764</v>
+        <v>0.06347513538993595</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.106477210177289</v>
+        <v>0.1053381438079598</v>
       </c>
     </row>
     <row r="23">
@@ -4575,19 +4575,19 @@
         <v>59938</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>48945</v>
+        <v>48199</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>73427</v>
+        <v>73878</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3920355787512456</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3201368078277853</v>
+        <v>0.3152592814545115</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4802682708186987</v>
+        <v>0.4832161356948161</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>111</v>
@@ -4596,19 +4596,19 @@
         <v>123106</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>110607</v>
+        <v>110792</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>135071</v>
+        <v>135499</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7084204243079518</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6364968188717509</v>
+        <v>0.6375615083723996</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7772766361296777</v>
+        <v>0.7797393010159328</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>168</v>
@@ -4617,19 +4617,19 @@
         <v>183043</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>165113</v>
+        <v>163581</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>201759</v>
+        <v>200472</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5603427556789925</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5054547742480254</v>
+        <v>0.5007643531988178</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6176374797943449</v>
+        <v>0.6136965068290161</v>
       </c>
     </row>
     <row r="25">
@@ -4646,19 +4646,19 @@
         <v>47291</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>36599</v>
+        <v>36211</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>60259</v>
+        <v>59257</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3093181629645624</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2393871195381041</v>
+        <v>0.236845087806052</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3941388042039647</v>
+        <v>0.3875860701271903</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>37</v>
@@ -4667,19 +4667,19 @@
         <v>40076</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>29422</v>
+        <v>29563</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>51343</v>
+        <v>51933</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2306189062024958</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1693093902564168</v>
+        <v>0.1701250747311983</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2954577089898677</v>
+        <v>0.2988514859826358</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>83</v>
@@ -4688,19 +4688,19 @@
         <v>87367</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>71170</v>
+        <v>73717</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>104845</v>
+        <v>105191</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2674525365985825</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2178692144279478</v>
+        <v>0.2256658329893758</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3209583678809405</v>
+        <v>0.3220179277786843</v>
       </c>
     </row>
     <row r="26">
@@ -4717,19 +4717,19 @@
         <v>34709</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>25079</v>
+        <v>24621</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>47254</v>
+        <v>46354</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2270227537814435</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1640339594101819</v>
+        <v>0.1610366567560116</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3090735879580404</v>
+        <v>0.3031901598825384</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>7</v>
@@ -4738,19 +4738,19 @@
         <v>7581</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3136</v>
+        <v>3175</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>14401</v>
+        <v>15932</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04362683302092473</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01804757155577711</v>
+        <v>0.0182703531034116</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.08287409743458202</v>
+        <v>0.0916828109970912</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>39</v>
@@ -4759,19 +4759,19 @@
         <v>42290</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>30760</v>
+        <v>31861</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>57707</v>
+        <v>57357</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.12946166602152</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09416521312727331</v>
+        <v>0.09753403176993326</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1766556527697906</v>
+        <v>0.1755853027255252</v>
       </c>
     </row>
     <row r="27">
@@ -4788,19 +4788,19 @@
         <v>10950</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>5475</v>
+        <v>5031</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>20083</v>
+        <v>20292</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.07162350450274846</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.03580966179839656</v>
+        <v>0.03290384768787518</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1313591749892207</v>
+        <v>0.1327234936140944</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>3</v>
@@ -4809,19 +4809,19 @@
         <v>3012</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>8955</v>
+        <v>9234</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.01733383646862762</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.005646572558905398</v>
+        <v>0.005616607612735157</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.05153160868140022</v>
+        <v>0.05313638118129145</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>12</v>
@@ -4830,19 +4830,19 @@
         <v>13963</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>7106</v>
+        <v>7226</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>24210</v>
+        <v>22941</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.04274304170090507</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.02175411771088505</v>
+        <v>0.02212189567998106</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.07411442722211072</v>
+        <v>0.07022743649698213</v>
       </c>
     </row>
     <row r="28">
@@ -4934,19 +4934,19 @@
         <v>630614</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>594178</v>
+        <v>594249</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>675111</v>
+        <v>671467</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4457657461658984</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4200097418648993</v>
+        <v>0.4200604123848457</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4772197716620163</v>
+        <v>0.4746436054820602</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>513</v>
@@ -4955,19 +4955,19 @@
         <v>561189</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>530620</v>
+        <v>529803</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>593396</v>
+        <v>593046</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5933224023746992</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5610031327132393</v>
+        <v>0.5601384952656574</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6273733487004776</v>
+        <v>0.627003327430224</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1098</v>
@@ -4976,19 +4976,19 @@
         <v>1191803</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1135080</v>
+        <v>1144130</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1243902</v>
+        <v>1244105</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5048905883167782</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4808604536178677</v>
+        <v>0.4846943622838964</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5269616139336422</v>
+        <v>0.5270472869718784</v>
       </c>
     </row>
     <row r="30">
@@ -5005,19 +5005,19 @@
         <v>428260</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>393929</v>
+        <v>393039</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>465536</v>
+        <v>465229</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3027263945391501</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2784589046991437</v>
+        <v>0.2778294987218611</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3290757636588892</v>
+        <v>0.3288591397272772</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>253</v>
@@ -5026,19 +5026,19 @@
         <v>272714</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>244458</v>
+        <v>244665</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>299159</v>
+        <v>302265</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2883288864355022</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2584550828048418</v>
+        <v>0.2586741547300622</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3162888666578499</v>
+        <v>0.3195727380167058</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>661</v>
@@ -5047,19 +5047,19 @@
         <v>700973</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>655648</v>
+        <v>654989</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>746707</v>
+        <v>747171</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2969574213469843</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.277755830610386</v>
+        <v>0.2774766864901975</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3163317280417049</v>
+        <v>0.3165285470550602</v>
       </c>
     </row>
     <row r="31">
@@ -5076,19 +5076,19 @@
         <v>251389</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>221120</v>
+        <v>224678</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>280497</v>
+        <v>281369</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1777007138276626</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1563044164740235</v>
+        <v>0.1588196440077887</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1982766936655945</v>
+        <v>0.1988929391103537</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>66</v>
@@ -5097,19 +5097,19 @@
         <v>70306</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>54866</v>
+        <v>55836</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>89253</v>
+        <v>87442</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.07433172858412321</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05800710436722127</v>
+        <v>0.05903355242576893</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.09436334617298725</v>
+        <v>0.09244872534836104</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>308</v>
@@ -5118,19 +5118,19 @@
         <v>321695</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>292602</v>
+        <v>289310</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>358887</v>
+        <v>355170</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1362815390316945</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1239567917020881</v>
+        <v>0.1225620240976078</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.152037238942479</v>
+        <v>0.1504625261551145</v>
       </c>
     </row>
     <row r="32">
@@ -5147,19 +5147,19 @@
         <v>104413</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>85384</v>
+        <v>84534</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>127058</v>
+        <v>123907</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.07380714546728889</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.06035588566585625</v>
+        <v>0.05975483616467211</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08981391917363997</v>
+        <v>0.08758675096761474</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>41</v>
@@ -5168,19 +5168,19 @@
         <v>41633</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>29955</v>
+        <v>30831</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>55570</v>
+        <v>56211</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.04401698260567533</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03166970581711491</v>
+        <v>0.03259675964782519</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.05875192883059829</v>
+        <v>0.05943007464674473</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>134</v>
@@ -5189,19 +5189,19 @@
         <v>146046</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>121795</v>
+        <v>122772</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>172359</v>
+        <v>173246</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.06187045130454295</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.05159679464624685</v>
+        <v>0.05201069227997419</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.07301745993696061</v>
+        <v>0.0733933828287915</v>
       </c>
     </row>
     <row r="33">
@@ -5534,19 +5534,19 @@
         <v>152092</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>134585</v>
+        <v>133958</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>168068</v>
+        <v>168636</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5552123799040716</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4913041383370578</v>
+        <v>0.4890147110196869</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6135329981972331</v>
+        <v>0.6156049718034614</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>114</v>
@@ -5555,19 +5555,19 @@
         <v>117748</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>101791</v>
+        <v>103368</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>132158</v>
+        <v>132658</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5497761340367342</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4752727773502684</v>
+        <v>0.4826379041025076</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6170599011790303</v>
+        <v>0.6193930097266099</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>253</v>
@@ -5576,19 +5576,19 @@
         <v>269840</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>247537</v>
+        <v>247208</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>292479</v>
+        <v>292859</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.552827043860913</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5071356166537501</v>
+        <v>0.506460247807029</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5992080650300783</v>
+        <v>0.5999875979963452</v>
       </c>
     </row>
     <row r="5">
@@ -5605,19 +5605,19 @@
         <v>74270</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>59166</v>
+        <v>59900</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>89252</v>
+        <v>89083</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2711214672887284</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2159838820298408</v>
+        <v>0.2186666580505296</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3258136397904174</v>
+        <v>0.3251988314039095</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>60</v>
@@ -5626,19 +5626,19 @@
         <v>59891</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>47651</v>
+        <v>47832</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>73824</v>
+        <v>73463</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2796380902411512</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2224869310204097</v>
+        <v>0.2233312799778422</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3446927714127811</v>
+        <v>0.3430048420824968</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>129</v>
@@ -5647,19 +5647,19 @@
         <v>134161</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>116158</v>
+        <v>115548</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>155307</v>
+        <v>155037</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2748584225681914</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2379763701380291</v>
+        <v>0.2367248722558603</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3181808822566647</v>
+        <v>0.317628107815403</v>
       </c>
     </row>
     <row r="6">
@@ -5676,19 +5676,19 @@
         <v>34522</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>23834</v>
+        <v>24537</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>47015</v>
+        <v>48232</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1260231879626486</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08700522663405851</v>
+        <v>0.08957404133973053</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1716284224686057</v>
+        <v>0.1760698218079179</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>26</v>
@@ -5697,19 +5697,19 @@
         <v>26181</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>17400</v>
+        <v>17282</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>36801</v>
+        <v>36066</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.122240977890019</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08124291597406293</v>
+        <v>0.08068926858393748</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1718255407443811</v>
+        <v>0.1683941795394886</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>56</v>
@@ -5718,19 +5718,19 @@
         <v>60703</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>46560</v>
+        <v>45955</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>77453</v>
+        <v>75896</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1243636158554989</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09538887105936758</v>
+        <v>0.09414866462191514</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1586806525479402</v>
+        <v>0.155488858488349</v>
       </c>
     </row>
     <row r="7">
@@ -5747,19 +5747,19 @@
         <v>13051</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7484</v>
+        <v>6230</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22186</v>
+        <v>22004</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04764296484455141</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02732094596677234</v>
+        <v>0.0227415843006447</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08098839633589318</v>
+        <v>0.08032734508857384</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -5768,19 +5768,19 @@
         <v>10354</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4899</v>
+        <v>5039</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19151</v>
+        <v>20227</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04834479783209566</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02287618809490952</v>
+        <v>0.02352593352876885</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08941794462866462</v>
+        <v>0.09444356764831545</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>21</v>
@@ -5789,19 +5789,19 @@
         <v>23405</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15046</v>
+        <v>14285</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>34399</v>
+        <v>35838</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04795091771539661</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03082566668370674</v>
+        <v>0.02926687046867826</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07047472467497781</v>
+        <v>0.07342184265843409</v>
       </c>
     </row>
     <row r="8">
@@ -5893,19 +5893,19 @@
         <v>148265</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>131670</v>
+        <v>132056</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>163094</v>
+        <v>161649</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6162781984484118</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5473003986842648</v>
+        <v>0.5489040009646432</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6779165032811213</v>
+        <v>0.6719122263534545</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>109</v>
@@ -5914,19 +5914,19 @@
         <v>114592</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>101969</v>
+        <v>99445</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>128506</v>
+        <v>127587</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6057433025726886</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5390181012220033</v>
+        <v>0.5256733288880732</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6792927533224148</v>
+        <v>0.6744329302627111</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>244</v>
@@ -5935,19 +5935,19 @@
         <v>262857</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>241775</v>
+        <v>242334</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>282261</v>
+        <v>282605</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6116408158600526</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5625842098328973</v>
+        <v>0.5638871221224127</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6567919603473193</v>
+        <v>0.6575918454973642</v>
       </c>
     </row>
     <row r="10">
@@ -5964,19 +5964,19 @@
         <v>64829</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>52394</v>
+        <v>52557</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>80850</v>
+        <v>80363</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2694696934886445</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2177829616154873</v>
+        <v>0.2184590617214311</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3360603908188335</v>
+        <v>0.3340361587476107</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>56</v>
@@ -5985,19 +5985,19 @@
         <v>57505</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>45080</v>
+        <v>45106</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>70393</v>
+        <v>71468</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.303975616653855</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.238295557464495</v>
+        <v>0.2384347389693317</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3721026506337787</v>
+        <v>0.3777880251665082</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>117</v>
@@ -6006,19 +6006,19 @@
         <v>122334</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>102635</v>
+        <v>103770</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>141769</v>
+        <v>141181</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2846589434982581</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2388214063727497</v>
+        <v>0.2414624752768659</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.329881696963678</v>
+        <v>0.3285139032721802</v>
       </c>
     </row>
     <row r="11">
@@ -6035,19 +6035,19 @@
         <v>21000</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>12948</v>
+        <v>13703</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>32448</v>
+        <v>32567</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08728733155782191</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0538209099285164</v>
+        <v>0.05695714161408415</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1348717534497998</v>
+        <v>0.1353698181492509</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>14</v>
@@ -6056,19 +6056,19 @@
         <v>14266</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7978</v>
+        <v>8312</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>22149</v>
+        <v>22281</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0754120382816628</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04217090305791498</v>
+        <v>0.04393869371684891</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1170817200555213</v>
+        <v>0.1177776817692521</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>33</v>
@@ -6077,19 +6077,19 @@
         <v>35266</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>24868</v>
+        <v>24278</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>49670</v>
+        <v>47087</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08205991603135011</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05786551358631063</v>
+        <v>0.05649168849821264</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1155771076415962</v>
+        <v>0.1095670450577245</v>
       </c>
     </row>
     <row r="12">
@@ -6106,19 +6106,19 @@
         <v>6487</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2083</v>
+        <v>2702</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13619</v>
+        <v>13247</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02696477650512181</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.008660135921913363</v>
+        <v>0.01122911266968841</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05660858449958629</v>
+        <v>0.05506417452246702</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -6127,19 +6127,19 @@
         <v>2813</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>915</v>
+        <v>923</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7557</v>
+        <v>8297</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01486904249179354</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.004839221852176868</v>
+        <v>0.004878937088316853</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03994616842713921</v>
+        <v>0.04386056116381128</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -6148,19 +6148,19 @@
         <v>9300</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4641</v>
+        <v>4177</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>17937</v>
+        <v>17163</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02164032461033915</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01079798741947625</v>
+        <v>0.009720400102371041</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04173783082924556</v>
+        <v>0.03993739799782836</v>
       </c>
     </row>
     <row r="13">
@@ -6252,19 +6252,19 @@
         <v>75424</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>62190</v>
+        <v>61335</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>89725</v>
+        <v>90211</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.35619036158706</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.293694502482983</v>
+        <v>0.2896568671456682</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4237269752947709</v>
+        <v>0.4260239754835887</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>38</v>
@@ -6273,19 +6273,19 @@
         <v>37131</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>29289</v>
+        <v>29312</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>45573</v>
+        <v>45091</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5785577604755986</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4563701572513528</v>
+        <v>0.4567282238600396</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7100917722006387</v>
+        <v>0.702585415283508</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>110</v>
@@ -6294,19 +6294,19 @@
         <v>112555</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>97095</v>
+        <v>96190</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>128960</v>
+        <v>128061</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4079109684597597</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3518828225296349</v>
+        <v>0.3486020323435076</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4673638128775549</v>
+        <v>0.4641041472989497</v>
       </c>
     </row>
     <row r="15">
@@ -6323,19 +6323,19 @@
         <v>75711</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>62066</v>
+        <v>62479</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>90938</v>
+        <v>90266</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.357546456817844</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2931090234620445</v>
+        <v>0.2950586887745709</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4294544537930178</v>
+        <v>0.4262812549790541</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>16</v>
@@ -6344,19 +6344,19 @@
         <v>17819</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>11592</v>
+        <v>10862</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>26052</v>
+        <v>26521</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2776516108287594</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1806126395819594</v>
+        <v>0.1692490365428807</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4059238154911182</v>
+        <v>0.4132285904299614</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>86</v>
@@ -6365,19 +6365,19 @@
         <v>93531</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>78130</v>
+        <v>77816</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>109926</v>
+        <v>110962</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3389636522286353</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2831516147181535</v>
+        <v>0.2820127385820974</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3983826241183857</v>
+        <v>0.4021365288104254</v>
       </c>
     </row>
     <row r="16">
@@ -6394,19 +6394,19 @@
         <v>39998</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>28601</v>
+        <v>30474</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>52531</v>
+        <v>54004</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1888924639567654</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1350684940653569</v>
+        <v>0.1439133803540699</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2480771836650667</v>
+        <v>0.255033669068679</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -6415,19 +6415,19 @@
         <v>6850</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2960</v>
+        <v>2927</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13434</v>
+        <v>12896</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1067347766892997</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04612286260745627</v>
+        <v>0.04561189042752477</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2093153923982026</v>
+        <v>0.2009389944405466</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>45</v>
@@ -6436,19 +6436,19 @@
         <v>46848</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>34527</v>
+        <v>34290</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>60041</v>
+        <v>59715</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1697833433483945</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1251292038632125</v>
+        <v>0.1242702981227321</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2175943625259497</v>
+        <v>0.2164111157500663</v>
       </c>
     </row>
     <row r="17">
@@ -6465,19 +6465,19 @@
         <v>20618</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13347</v>
+        <v>13087</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>31073</v>
+        <v>30030</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09737071763833054</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06303081755518299</v>
+        <v>0.0618033660250182</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1467431695657544</v>
+        <v>0.1418150449264184</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -6489,7 +6489,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7676</v>
+        <v>8660</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0370558520063422</v>
@@ -6498,7 +6498,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1196080604042236</v>
+        <v>0.1349354151680629</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>21</v>
@@ -6507,19 +6507,19 @@
         <v>22997</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>14523</v>
+        <v>14816</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>33519</v>
+        <v>34692</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08334203596321038</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05263433593704987</v>
+        <v>0.05369458661524912</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1214755946122659</v>
+        <v>0.1257281462488044</v>
       </c>
     </row>
     <row r="18">
@@ -6611,19 +6611,19 @@
         <v>142189</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>122175</v>
+        <v>123522</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>163825</v>
+        <v>164717</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2941225258428196</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2527237573489391</v>
+        <v>0.255509161033422</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3388779293505481</v>
+        <v>0.340722220219289</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>161</v>
@@ -6632,19 +6632,19 @@
         <v>164030</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>145024</v>
+        <v>146781</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>185485</v>
+        <v>183720</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4508312379802742</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3985918423056948</v>
+        <v>0.4034206803253698</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5097985428430051</v>
+        <v>0.5049469486174505</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>297</v>
@@ -6653,19 +6653,19 @@
         <v>306219</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>277404</v>
+        <v>278914</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>334744</v>
+        <v>334626</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3614170873047706</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3274078225415593</v>
+        <v>0.3291896941956587</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3950833538066886</v>
+        <v>0.3949446334269898</v>
       </c>
     </row>
     <row r="20">
@@ -6682,19 +6682,19 @@
         <v>184556</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>162152</v>
+        <v>163934</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>207606</v>
+        <v>205934</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.381760557151239</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3354162769520629</v>
+        <v>0.3391032925134291</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4294394138931881</v>
+        <v>0.4259815654772928</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>117</v>
@@ -6703,19 +6703,19 @@
         <v>118057</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>99234</v>
+        <v>99483</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>135414</v>
+        <v>135491</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3244741566442425</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2727411745093017</v>
+        <v>0.2734245300955234</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3721802913017485</v>
+        <v>0.3723914110189449</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>292</v>
@@ -6724,19 +6724,19 @@
         <v>302613</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>276203</v>
+        <v>275539</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>332777</v>
+        <v>331905</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3571603728521644</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3259896273563406</v>
+        <v>0.3252060272419144</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.39276234625506</v>
+        <v>0.3917333397567265</v>
       </c>
     </row>
     <row r="21">
@@ -6753,19 +6753,19 @@
         <v>107069</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>89842</v>
+        <v>89250</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>127277</v>
+        <v>127316</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2214752308640006</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1858409257257064</v>
+        <v>0.184616757903167</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2632774978445194</v>
+        <v>0.2633572009390728</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>53</v>
@@ -6774,19 +6774,19 @@
         <v>52225</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>40767</v>
+        <v>40724</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>67307</v>
+        <v>66366</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1435390191419277</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1120466174732582</v>
+        <v>0.1119283422852005</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.18499184324583</v>
+        <v>0.1824031191662694</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>155</v>
@@ -6795,19 +6795,19 @@
         <v>159294</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>136988</v>
+        <v>137100</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>181648</v>
+        <v>182038</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1880075115629679</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1616806635488779</v>
+        <v>0.161813076708973</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2143908275395801</v>
+        <v>0.2148509180949308</v>
       </c>
     </row>
     <row r="22">
@@ -6824,19 +6824,19 @@
         <v>49620</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>36796</v>
+        <v>37582</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>63059</v>
+        <v>64859</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1026416861419407</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07611480987151702</v>
+        <v>0.07773929444912808</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1304403284232504</v>
+        <v>0.134162709857621</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>28</v>
@@ -6845,19 +6845,19 @@
         <v>29528</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>20368</v>
+        <v>21348</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>41195</v>
+        <v>42094</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08115558623355557</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05598104806019981</v>
+        <v>0.05867333771839059</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1132225010045946</v>
+        <v>0.1156926541461285</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>74</v>
@@ -6866,19 +6866,19 @@
         <v>79148</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>63198</v>
+        <v>64380</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>97994</v>
+        <v>98807</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09341502828009705</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07458964404206887</v>
+        <v>0.07598431221086666</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1156578398662068</v>
+        <v>0.1166177859781032</v>
       </c>
     </row>
     <row r="23">
@@ -6970,19 +6970,19 @@
         <v>67302</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>53358</v>
+        <v>53958</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>81911</v>
+        <v>81173</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3504512170048689</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.277842427854968</v>
+        <v>0.2809664466964207</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4265207330910246</v>
+        <v>0.4226801918594612</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>119</v>
@@ -6991,19 +6991,19 @@
         <v>122650</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>108932</v>
+        <v>109271</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>136954</v>
+        <v>135743</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6264218773650295</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5563573522179724</v>
+        <v>0.558089019095823</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6994783668890258</v>
+        <v>0.6932915477793458</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>181</v>
@@ -7012,19 +7012,19 @@
         <v>189952</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>169848</v>
+        <v>170077</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>209683</v>
+        <v>208828</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4897710560180343</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4379350683267345</v>
+        <v>0.4385253626575794</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5406433461276441</v>
+        <v>0.5384391139347627</v>
       </c>
     </row>
     <row r="25">
@@ -7041,19 +7041,19 @@
         <v>76632</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>63425</v>
+        <v>63082</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>91065</v>
+        <v>91396</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3990359560015077</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3302641710337839</v>
+        <v>0.3284773040103389</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.474190644571978</v>
+        <v>0.4759138581230234</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>53</v>
@@ -7062,19 +7062,19 @@
         <v>53867</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>41150</v>
+        <v>42746</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>66785</v>
+        <v>66995</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2751170906046229</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2101675169036505</v>
+        <v>0.2183221946631476</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3410951448867366</v>
+        <v>0.3421683824321105</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>122</v>
@@ -7083,19 +7083,19 @@
         <v>130499</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>112859</v>
+        <v>110549</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>151379</v>
+        <v>149247</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3364772899633972</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2909933805278829</v>
+        <v>0.2850390216184726</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3903127457727524</v>
+        <v>0.3848181402066477</v>
       </c>
     </row>
     <row r="26">
@@ -7112,19 +7112,19 @@
         <v>32881</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>23600</v>
+        <v>23302</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>44753</v>
+        <v>47048</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1712166106852232</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1228903507073115</v>
+        <v>0.1213357900727663</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2330333039437873</v>
+        <v>0.2449870329512207</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>13</v>
@@ -7136,16 +7136,16 @@
         <v>8022</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>23653</v>
+        <v>22670</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.07111968437610021</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04097383880222229</v>
+        <v>0.0409734969844632</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1208026704219775</v>
+        <v>0.1157830135081459</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>43</v>
@@ -7154,19 +7154,19 @@
         <v>46806</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>34249</v>
+        <v>35222</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>61202</v>
+        <v>60383</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1206841097269696</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08830739332705881</v>
+        <v>0.09081596053854386</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1578030009968899</v>
+        <v>0.1556898095495209</v>
       </c>
     </row>
     <row r="27">
@@ -7183,19 +7183,19 @@
         <v>15228</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>8313</v>
+        <v>8595</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>24145</v>
+        <v>24638</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.07929621630840035</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.04328556593968492</v>
+        <v>0.04475663123023441</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1257263957622306</v>
+        <v>0.1282948048563405</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>5</v>
@@ -7204,19 +7204,19 @@
         <v>5353</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1938</v>
+        <v>1854</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>12814</v>
+        <v>11774</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.02734134765424741</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.009899838030933025</v>
+        <v>0.009468832114895588</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.06544368165115626</v>
+        <v>0.06013177660043028</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>19</v>
@@ -7225,19 +7225,19 @@
         <v>20582</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>12397</v>
+        <v>12159</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>30018</v>
+        <v>31277</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.05306754429159896</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.03196396828462498</v>
+        <v>0.03135121912230297</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.07739780726163674</v>
+        <v>0.08064452333594657</v>
       </c>
     </row>
     <row r="28">
@@ -7329,19 +7329,19 @@
         <v>585272</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>549485</v>
+        <v>547906</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>622071</v>
+        <v>623708</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.417530637697771</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3920001204871518</v>
+        <v>0.3908737414938689</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4437832067354051</v>
+        <v>0.4449507454398357</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>541</v>
@@ -7350,19 +7350,19 @@
         <v>556152</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>527015</v>
+        <v>524081</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>588392</v>
+        <v>590371</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5414440157765661</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.513077133141407</v>
+        <v>0.5102205830399836</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5728307351840445</v>
+        <v>0.5747577814082305</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1085</v>
@@ -7371,19 +7371,19 @@
         <v>1141424</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1090347</v>
+        <v>1092646</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1192632</v>
+        <v>1188154</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4699325022942908</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4489038406205474</v>
+        <v>0.449850104936101</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4910151008349381</v>
+        <v>0.4891715196799596</v>
       </c>
     </row>
     <row r="30">
@@ -7400,19 +7400,19 @@
         <v>475999</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>439432</v>
+        <v>439824</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>513104</v>
+        <v>513462</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3395755064455065</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3134887759599129</v>
+        <v>0.3137683401254407</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3660460120910844</v>
+        <v>0.3663019586095897</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>302</v>
@@ -7421,19 +7421,19 @@
         <v>307139</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>277666</v>
+        <v>274175</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>333042</v>
+        <v>337144</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2990162517520477</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2703222067715869</v>
+        <v>0.2669242582348488</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3242340840990122</v>
+        <v>0.328227904962147</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>746</v>
@@ -7442,19 +7442,19 @@
         <v>783138</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>737465</v>
+        <v>737137</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>828466</v>
+        <v>828310</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3224233586666696</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3036197600138645</v>
+        <v>0.303484637130421</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3410854057570895</v>
+        <v>0.3410209846212774</v>
       </c>
     </row>
     <row r="31">
@@ -7471,19 +7471,19 @@
         <v>235470</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>209225</v>
+        <v>204927</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>265502</v>
+        <v>264518</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1679833132451104</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1492604208626355</v>
+        <v>0.1461937756402593</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1894083643638338</v>
+        <v>0.1887061975389904</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>113</v>
@@ -7492,19 +7492,19 @@
         <v>113447</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>95206</v>
+        <v>94417</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>134918</v>
+        <v>134050</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1104470582504565</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.09268845463827924</v>
+        <v>0.09191973824213923</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1313494431313056</v>
+        <v>0.1305050792222196</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>332</v>
@@ -7513,19 +7513,19 @@
         <v>348917</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>314948</v>
+        <v>314029</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>384132</v>
+        <v>387632</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1436517431566613</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1296663168568549</v>
+        <v>0.1292878949241782</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1581499622569217</v>
+        <v>0.1595909292237431</v>
       </c>
     </row>
     <row r="32">
@@ -7542,19 +7542,19 @@
         <v>105006</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>86846</v>
+        <v>84930</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>126341</v>
+        <v>126199</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.07491054261161202</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.061955695903619</v>
+        <v>0.06058907024999278</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.09013097863411057</v>
+        <v>0.09002988009466317</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>47</v>
@@ -7563,19 +7563,19 @@
         <v>50426</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>37787</v>
+        <v>37089</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>67057</v>
+        <v>66699</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.04909267422092969</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03678801622123406</v>
+        <v>0.03610807611594872</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.06528376571297598</v>
+        <v>0.06493507550214155</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>144</v>
@@ -7584,19 +7584,19 @@
         <v>155432</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>132694</v>
+        <v>129680</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>181567</v>
+        <v>180292</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.06399239588237823</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.05463111788943825</v>
+        <v>0.05339021767209755</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0747523454518098</v>
+        <v>0.07422761796572162</v>
       </c>
     </row>
     <row r="33">
@@ -7929,19 +7929,19 @@
         <v>115980</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>100442</v>
+        <v>100108</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>130059</v>
+        <v>131250</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.5936124604262171</v>
+        <v>0.593612460426217</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5140864726643505</v>
+        <v>0.512374306852852</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6656713848811746</v>
+        <v>0.671770318196829</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>129</v>
@@ -7950,19 +7950,19 @@
         <v>98124</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>86547</v>
+        <v>87013</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>108389</v>
+        <v>107887</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.6136716307075707</v>
+        <v>0.6136716307075708</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5412665736102915</v>
+        <v>0.5441810614022753</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6778678216765883</v>
+        <v>0.6747279481473498</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>227</v>
@@ -7971,19 +7971,19 @@
         <v>214104</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>194827</v>
+        <v>195326</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>231088</v>
+        <v>234277</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.6026403545524934</v>
+        <v>0.6026403545524933</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.548381716790901</v>
+        <v>0.5497851972267379</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6504440420293681</v>
+        <v>0.6594196669931641</v>
       </c>
     </row>
     <row r="5">
@@ -8000,19 +8000,19 @@
         <v>52879</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>40449</v>
+        <v>39354</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>67675</v>
+        <v>66674</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2706452142704324</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2070256813283801</v>
+        <v>0.201423338216813</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.346377596389797</v>
+        <v>0.3412511153522007</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>62</v>
@@ -8021,19 +8021,19 @@
         <v>43344</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>34846</v>
+        <v>34428</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>53665</v>
+        <v>54001</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2710750693444023</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2179300909743505</v>
+        <v>0.2153134737897142</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3356247509859803</v>
+        <v>0.3377220765058398</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>110</v>
@@ -8042,19 +8042,19 @@
         <v>96223</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>80973</v>
+        <v>79428</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>112631</v>
+        <v>114206</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2708386762154187</v>
+        <v>0.2708386762154186</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2279161969206489</v>
+        <v>0.2235665839199821</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3170227378323585</v>
+        <v>0.3214567365865642</v>
       </c>
     </row>
     <row r="6">
@@ -8071,19 +8071,19 @@
         <v>16234</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9317</v>
+        <v>8887</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>26814</v>
+        <v>26631</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.08308970076877893</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04768525299959143</v>
+        <v>0.04548480644898167</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1372410969448375</v>
+        <v>0.1363038843298005</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -8092,19 +8092,19 @@
         <v>7770</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4362</v>
+        <v>3834</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13399</v>
+        <v>13179</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.04859534147308191</v>
+        <v>0.04859534147308193</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02728003459174694</v>
+        <v>0.02397757805153246</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08379771739868302</v>
+        <v>0.08242180290895586</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>25</v>
@@ -8113,19 +8113,19 @@
         <v>24004</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>15083</v>
+        <v>15637</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>34606</v>
+        <v>34857</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.06756505945473774</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04245386869558417</v>
+        <v>0.04401384356809303</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09740671958059159</v>
+        <v>0.09811103909430585</v>
       </c>
     </row>
     <row r="7">
@@ -8142,19 +8142,19 @@
         <v>10287</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4405</v>
+        <v>4512</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20272</v>
+        <v>20818</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.05265262453457163</v>
+        <v>0.05265262453457162</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02254608022312642</v>
+        <v>0.02309460088181891</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1037586422545087</v>
+        <v>0.1065499358015115</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -8163,19 +8163,19 @@
         <v>10658</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6187</v>
+        <v>6057</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17690</v>
+        <v>16761</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.06665795847494514</v>
+        <v>0.06665795847494516</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03869490926225065</v>
+        <v>0.0378831386069606</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1106328837864745</v>
+        <v>0.1048214988115557</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>21</v>
@@ -8184,19 +8184,19 @@
         <v>20946</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12708</v>
+        <v>13210</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31798</v>
+        <v>32107</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.05895590977735009</v>
+        <v>0.05895590977735011</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03577047063176701</v>
+        <v>0.0371816153498371</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08950248247357652</v>
+        <v>0.09037125013724599</v>
       </c>
     </row>
     <row r="8">
@@ -8288,19 +8288,19 @@
         <v>102513</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>88508</v>
+        <v>87907</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>115886</v>
+        <v>115835</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.620753901284019</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5359527865734738</v>
+        <v>0.5323106601576179</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7017326638785942</v>
+        <v>0.7014239552175814</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>107</v>
@@ -8309,19 +8309,19 @@
         <v>83576</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>74420</v>
+        <v>73508</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>92295</v>
+        <v>92334</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.6730285303012868</v>
+        <v>0.6730285303012867</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5992926099011846</v>
+        <v>0.5919541440544047</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7432442064979167</v>
+        <v>0.7435530284448091</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>193</v>
@@ -8330,19 +8330,19 @@
         <v>186089</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>167117</v>
+        <v>167958</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>201339</v>
+        <v>200623</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6431905657743118</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5776194892180817</v>
+        <v>0.5805251556516507</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6959029989227943</v>
+        <v>0.6934253091391245</v>
       </c>
     </row>
     <row r="10">
@@ -8359,19 +8359,19 @@
         <v>55322</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>42314</v>
+        <v>44613</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>69053</v>
+        <v>70129</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3349986391596668</v>
+        <v>0.3349986391596667</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2562285140306369</v>
+        <v>0.2701514405871323</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4181401758705433</v>
+        <v>0.4246587561446485</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>47</v>
@@ -8380,19 +8380,19 @@
         <v>32696</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>24442</v>
+        <v>24789</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>41656</v>
+        <v>42057</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2632998654698873</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1968289601860647</v>
+        <v>0.199625489295211</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3354551630772742</v>
+        <v>0.3386819336968508</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>97</v>
@@ -8401,19 +8401,19 @@
         <v>88019</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>73943</v>
+        <v>73650</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>104953</v>
+        <v>106374</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3042249854793773</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2555737003929821</v>
+        <v>0.2545628501316803</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.362755901208342</v>
+        <v>0.3676689170366186</v>
       </c>
     </row>
     <row r="11">
@@ -8433,7 +8433,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3514</v>
+        <v>3588</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.004916021247631549</v>
@@ -8442,7 +8442,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02127600162398079</v>
+        <v>0.02172858455121366</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -8451,19 +8451,19 @@
         <v>3420</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>712</v>
+        <v>1174</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8970</v>
+        <v>9535</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02753798840079618</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.00573695938782428</v>
+        <v>0.009454316658541299</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07223371441473138</v>
+        <v>0.07678595272862281</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -8472,19 +8472,19 @@
         <v>4231</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1325</v>
+        <v>1546</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>10236</v>
+        <v>10793</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01462553993131874</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004578909504151237</v>
+        <v>0.005343196773617321</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03537861623852724</v>
+        <v>0.03730313135999646</v>
       </c>
     </row>
     <row r="12">
@@ -8501,19 +8501,19 @@
         <v>6495</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>16991</v>
+        <v>17824</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03933143830868265</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01162311758431216</v>
+        <v>0.01160699537690351</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1028868685889399</v>
+        <v>0.107933907822769</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -8522,19 +8522,19 @@
         <v>4487</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1562</v>
+        <v>2012</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9672</v>
+        <v>9991</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03613361582802968</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01258224536574537</v>
+        <v>0.01620230050488875</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07789109270997036</v>
+        <v>0.080457282954804</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>10</v>
@@ -8543,19 +8543,19 @@
         <v>10982</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5501</v>
+        <v>5443</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>22564</v>
+        <v>23758</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03795890881499221</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0190128512526607</v>
+        <v>0.01881182519463602</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07798790734224223</v>
+        <v>0.08211721112109932</v>
       </c>
     </row>
     <row r="13">
@@ -8647,19 +8647,19 @@
         <v>42742</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>31595</v>
+        <v>31273</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>57297</v>
+        <v>56639</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3056692018850976</v>
+        <v>0.3056692018850974</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2259476456661338</v>
+        <v>0.2236439857620385</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.409752790681468</v>
+        <v>0.4050486069781898</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>38</v>
@@ -8668,19 +8668,19 @@
         <v>29385</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>22921</v>
+        <v>22827</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>35230</v>
+        <v>34884</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6033930105017089</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4706578967819935</v>
+        <v>0.4687339564966611</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7234095136171568</v>
+        <v>0.7162970229544222</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>74</v>
@@ -8689,19 +8689,19 @@
         <v>72127</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>59277</v>
+        <v>58118</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>88250</v>
+        <v>87163</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3825742446633075</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3144120285581238</v>
+        <v>0.3082678112948444</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.468088959144396</v>
+        <v>0.462322902609369</v>
       </c>
     </row>
     <row r="15">
@@ -8718,19 +8718,19 @@
         <v>61166</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>47884</v>
+        <v>48476</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>74048</v>
+        <v>76050</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4374222539049545</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3424401808622033</v>
+        <v>0.3466762626898993</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5295513529032582</v>
+        <v>0.5438692519538605</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>17</v>
@@ -8739,19 +8739,19 @@
         <v>11533</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>6837</v>
+        <v>6958</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>17655</v>
+        <v>17963</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.2368072695997382</v>
+        <v>0.2368072695997383</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1403823265708805</v>
+        <v>0.1428717098086008</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3625183542852697</v>
+        <v>0.3688480547389468</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>71</v>
@@ -8760,19 +8760,19 @@
         <v>72698</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>58297</v>
+        <v>57531</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>87186</v>
+        <v>86688</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3856013934180791</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3092146080683457</v>
+        <v>0.3051533994433597</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4624491028087943</v>
+        <v>0.4598050539360521</v>
       </c>
     </row>
     <row r="16">
@@ -8789,19 +8789,19 @@
         <v>24793</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15625</v>
+        <v>16550</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>34626</v>
+        <v>34849</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1773027730211926</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1117398406477263</v>
+        <v>0.118354408423218</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.247623175326041</v>
+        <v>0.2492175924736719</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -8810,19 +8810,19 @@
         <v>5129</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2228</v>
+        <v>2132</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10307</v>
+        <v>10374</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1053195075757259</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04574147307831872</v>
+        <v>0.0437751745906188</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2116487776759786</v>
+        <v>0.2130129287528107</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>28</v>
@@ -8831,19 +8831,19 @@
         <v>29922</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21047</v>
+        <v>21121</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>42860</v>
+        <v>42121</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1587087743278345</v>
+        <v>0.1587087743278346</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1116365565047852</v>
+        <v>0.1120281467503875</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.227335056757624</v>
+        <v>0.223416619907136</v>
       </c>
     </row>
     <row r="17">
@@ -8860,19 +8860,19 @@
         <v>11131</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4798</v>
+        <v>4865</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>21064</v>
+        <v>20352</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.07960577118875536</v>
+        <v>0.07960577118875535</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03431413899521309</v>
+        <v>0.0347938076008017</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1506385183870454</v>
+        <v>0.1455462824809416</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -8881,19 +8881,19 @@
         <v>2653</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>708</v>
+        <v>683</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6278</v>
+        <v>6023</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.05448021232282687</v>
+        <v>0.05448021232282688</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01453680965262377</v>
+        <v>0.01403373768829434</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1289020040187218</v>
+        <v>0.1236681200656332</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>12</v>
@@ -8902,19 +8902,19 @@
         <v>13785</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7595</v>
+        <v>7268</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>24033</v>
+        <v>23597</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07311558759077873</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04028452037099639</v>
+        <v>0.03855153073137057</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1274758889735416</v>
+        <v>0.1251627363652864</v>
       </c>
     </row>
     <row r="18">
@@ -9006,19 +9006,19 @@
         <v>87303</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>70293</v>
+        <v>71091</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>105030</v>
+        <v>105927</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3016477266178321</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2428750525881519</v>
+        <v>0.2456339860660014</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3629011032964476</v>
+        <v>0.3659997868395427</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>111</v>
@@ -9027,19 +9027,19 @@
         <v>87249</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>73046</v>
+        <v>74228</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>99846</v>
+        <v>100633</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3976783719311067</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3329448823809742</v>
+        <v>0.3383318457830213</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4550949187370615</v>
+        <v>0.4586863818922196</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>182</v>
@@ -9048,19 +9048,19 @@
         <v>174551</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>151889</v>
+        <v>153099</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>196200</v>
+        <v>198764</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3430550327742647</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2985149104074363</v>
+        <v>0.3008929648121925</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3856018627789822</v>
+        <v>0.3906411451664908</v>
       </c>
     </row>
     <row r="20">
@@ -9077,19 +9077,19 @@
         <v>136271</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>119073</v>
+        <v>118175</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>157041</v>
+        <v>155066</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4708446521634246</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4114198260352167</v>
+        <v>0.4083176278477727</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5426082646383492</v>
+        <v>0.5357826344211742</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>125</v>
@@ -9098,19 +9098,19 @@
         <v>94213</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>81025</v>
+        <v>81206</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>107884</v>
+        <v>108176</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.429422715244131</v>
+        <v>0.4294227152441309</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3693130474066319</v>
+        <v>0.370136790539555</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4917359227148976</v>
+        <v>0.4930633331200984</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>249</v>
@@ -9119,19 +9119,19 @@
         <v>230485</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>206346</v>
+        <v>206196</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>252734</v>
+        <v>254551</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.4529839909337271</v>
+        <v>0.4529839909337272</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.405543911931315</v>
+        <v>0.4052484781776279</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4967110494659752</v>
+        <v>0.5002838627580847</v>
       </c>
     </row>
     <row r="21">
@@ -9148,19 +9148,19 @@
         <v>49014</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>34861</v>
+        <v>35768</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>63221</v>
+        <v>65913</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1693516520219022</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1204524499454941</v>
+        <v>0.1235860365244091</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2184400331806571</v>
+        <v>0.2277422850400413</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>27</v>
@@ -9169,19 +9169,19 @@
         <v>22459</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>14584</v>
+        <v>15405</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>32068</v>
+        <v>33430</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1023662916643485</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.066475779656721</v>
+        <v>0.07021424440838722</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1461649239985764</v>
+        <v>0.1523716915002215</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>66</v>
@@ -9190,19 +9190,19 @@
         <v>71472</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>55078</v>
+        <v>56047</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>89529</v>
+        <v>91602</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1404683375833104</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1082469191239445</v>
+        <v>0.1101524844480227</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1759571162879758</v>
+        <v>0.1800308008930379</v>
       </c>
     </row>
     <row r="22">
@@ -9219,19 +9219,19 @@
         <v>16831</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9415</v>
+        <v>8835</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>29706</v>
+        <v>29802</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0581559691968412</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0325308423354561</v>
+        <v>0.03052731613593268</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1026391856174196</v>
+        <v>0.1029717271201571</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>15</v>
@@ -9240,19 +9240,19 @@
         <v>15475</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9076</v>
+        <v>8677</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>24443</v>
+        <v>25869</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07053262116041373</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04136977788580953</v>
+        <v>0.03955060927320221</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1114091263195161</v>
+        <v>0.1179108964250884</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>28</v>
@@ -9261,19 +9261,19 @@
         <v>32306</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>21731</v>
+        <v>21868</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>48164</v>
+        <v>47657</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.06349263870869772</v>
+        <v>0.06349263870869773</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04270916938335621</v>
+        <v>0.04297924052019139</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09465982146260832</v>
+        <v>0.09366344153446979</v>
       </c>
     </row>
     <row r="23">
@@ -9365,19 +9365,19 @@
         <v>59210</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>44640</v>
+        <v>43961</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>76223</v>
+        <v>74976</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3508712230121872</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.264530931463344</v>
+        <v>0.2605106021129684</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4516908390080555</v>
+        <v>0.4443050245541332</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>102</v>
@@ -9386,19 +9386,19 @@
         <v>77610</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>68240</v>
+        <v>66218</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>88589</v>
+        <v>87926</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.5152107073067899</v>
+        <v>0.51521070730679</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.453010275144713</v>
+        <v>0.4395868011333413</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5880975267356722</v>
+        <v>0.5836953438157613</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>145</v>
@@ -9407,19 +9407,19 @@
         <v>136819</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>119291</v>
+        <v>117782</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>154607</v>
+        <v>156693</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.4283812026812717</v>
+        <v>0.4283812026812718</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3734983364003264</v>
+        <v>0.3687748564135426</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4840732912881033</v>
+        <v>0.4906047237729509</v>
       </c>
     </row>
     <row r="25">
@@ -9436,19 +9436,19 @@
         <v>85346</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>69921</v>
+        <v>69149</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>100668</v>
+        <v>100840</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5057526680475986</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4143445355083064</v>
+        <v>0.4097746191575068</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5965482774777998</v>
+        <v>0.5975698603971961</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>93</v>
@@ -9457,19 +9457,19 @@
         <v>63269</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>52629</v>
+        <v>53412</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>72313</v>
+        <v>74216</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.4200103007305599</v>
+        <v>0.42001030073056</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3493764284069744</v>
+        <v>0.3545758131830092</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4800476256428424</v>
+        <v>0.4926804131174626</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>164</v>
@@ -9478,19 +9478,19 @@
         <v>148615</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>131277</v>
+        <v>130629</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>167855</v>
+        <v>169029</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.4653126655974928</v>
+        <v>0.4653126655974927</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4110275331596011</v>
+        <v>0.4089980152225814</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5255536098037825</v>
+        <v>0.5292298729093717</v>
       </c>
     </row>
     <row r="26">
@@ -9507,19 +9507,19 @@
         <v>18105</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>9937</v>
+        <v>10329</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>29156</v>
+        <v>30525</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1072908298841705</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05888584837590255</v>
+        <v>0.06120781943657736</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1727761163029906</v>
+        <v>0.1808917701950768</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>10</v>
@@ -9528,19 +9528,19 @@
         <v>8929</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4585</v>
+        <v>4373</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>17148</v>
+        <v>17683</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.05927463076349175</v>
+        <v>0.05927463076349174</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03043442166941217</v>
+        <v>0.02902823700556871</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1138343843998927</v>
+        <v>0.1173867244715808</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>24</v>
@@ -9549,19 +9549,19 @@
         <v>27034</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>17841</v>
+        <v>17390</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>40641</v>
+        <v>39816</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.08464420522421494</v>
+        <v>0.08464420522421495</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05586147713718133</v>
+        <v>0.05444958891602162</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1272484332233806</v>
+        <v>0.1246632601976568</v>
       </c>
     </row>
     <row r="27">
@@ -9578,19 +9578,19 @@
         <v>6089</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2183</v>
+        <v>2068</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>13347</v>
+        <v>14023</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.03608527905604381</v>
+        <v>0.03608527905604382</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01293818365855992</v>
+        <v>0.0122519371957</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.0790910871916074</v>
+        <v>0.08309917731325384</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1</v>
@@ -9602,7 +9602,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>4239</v>
+        <v>4214</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.005504361199158351</v>
@@ -9611,7 +9611,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.0281426580285481</v>
+        <v>0.02797777611704853</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>6</v>
@@ -9620,19 +9620,19 @@
         <v>6919</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>2408</v>
+        <v>2498</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>13719</v>
+        <v>15787</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.02166192649702045</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.007540763406182695</v>
+        <v>0.007820947237140285</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.04295275387646777</v>
+        <v>0.04942886538391977</v>
       </c>
     </row>
     <row r="28">
@@ -9724,19 +9724,19 @@
         <v>407747</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>375253</v>
+        <v>374492</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>443650</v>
+        <v>441610</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.4253909271266393</v>
+        <v>0.4253909271266394</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3914913482821454</v>
+        <v>0.3906968860224813</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.462847329870722</v>
+        <v>0.4607195113766439</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>487</v>
@@ -9745,19 +9745,19 @@
         <v>375944</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>353297</v>
+        <v>353029</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>401516</v>
+        <v>400129</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5349169898449354</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5026935930604354</v>
+        <v>0.5023124281550743</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5713022099660302</v>
+        <v>0.5693285927008778</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>821</v>
@@ -9766,19 +9766,19 @@
         <v>783691</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>744090</v>
+        <v>743054</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>825172</v>
+        <v>826751</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4717247172922845</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4478880377358223</v>
+        <v>0.4472640993964223</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4966935058893018</v>
+        <v>0.4976438255610398</v>
       </c>
     </row>
     <row r="30">
@@ -9795,19 +9795,19 @@
         <v>390984</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>357945</v>
+        <v>359072</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>431047</v>
+        <v>424725</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4079023133821811</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3734336287475772</v>
+        <v>0.3746093544529394</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4496993090146386</v>
+        <v>0.4431033140895405</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>344</v>
@@ -9816,19 +9816,19 @@
         <v>245055</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>223257</v>
+        <v>222672</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>268592</v>
+        <v>268108</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3486802237839852</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3176647518178161</v>
+        <v>0.3168319178991984</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3821698507460959</v>
+        <v>0.3814804917238713</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>691</v>
@@ -9837,19 +9837,19 @@
         <v>636039</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>596256</v>
+        <v>593858</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>675118</v>
+        <v>678281</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.3828490630003845</v>
+        <v>0.3828490630003843</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3589024309302833</v>
+        <v>0.3574593565295753</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4063714862779756</v>
+        <v>0.4082756504699358</v>
       </c>
     </row>
     <row r="31">
@@ -9866,19 +9866,19 @@
         <v>108957</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>88682</v>
+        <v>87097</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>134937</v>
+        <v>132265</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1136722207485205</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.092519344016322</v>
+        <v>0.09086614258602084</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1407758459040546</v>
+        <v>0.1379885618530559</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>58</v>
@@ -9887,19 +9887,19 @@
         <v>47707</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>35234</v>
+        <v>36289</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>59920</v>
+        <v>61778</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.06787989918263966</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05013290393015817</v>
+        <v>0.05163386242632109</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.08525740245942784</v>
+        <v>0.08790172010564364</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>148</v>
@@ -9908,19 +9908,19 @@
         <v>156664</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>134171</v>
+        <v>132431</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>185270</v>
+        <v>184285</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.09430028528427929</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.08076142927700782</v>
+        <v>0.07971358265108013</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1115188662600331</v>
+        <v>0.1109263583335822</v>
       </c>
     </row>
     <row r="32">
@@ -9937,19 +9937,19 @@
         <v>50835</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>37168</v>
+        <v>36580</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>72123</v>
+        <v>72632</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.05303453874265897</v>
+        <v>0.05303453874265898</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03877581063640006</v>
+        <v>0.03816328441949528</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.07524419558887464</v>
+        <v>0.07577494955488104</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>40</v>
@@ -9958,19 +9958,19 @@
         <v>34102</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>25308</v>
+        <v>25225</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>46609</v>
+        <v>46094</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.04852288718843976</v>
+        <v>0.04852288718843975</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03600960638491016</v>
+        <v>0.03589240706856382</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.06631802814915871</v>
+        <v>0.06558525061805556</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>77</v>
@@ -9979,19 +9979,19 @@
         <v>84937</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>64762</v>
+        <v>66441</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>105836</v>
+        <v>107376</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.05112593442305186</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03898172554557264</v>
+        <v>0.03999266511873349</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.06370576496003746</v>
+        <v>0.0646322570573111</v>
       </c>
     </row>
     <row r="33">
